--- a/va_facility_data_2025-02-20/Waterloo VA Clinic - Facility Data.xlsx"; filename*=UTF-8''Waterloo%20VA%20Clinic%20-%20Facility%20Data.xlsx
+++ b/va_facility_data_2025-02-20/Waterloo VA Clinic - Facility Data.xlsx"; filename*=UTF-8''Waterloo%20VA%20Clinic%20-%20Facility%20Data.xlsx
@@ -2,9 +2,9 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <x:workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <x:sheets>
-    <x:sheet name="Wait Times" sheetId="1" r:id="Rce880de014db47bba48ad13189e68086"/>
-    <x:sheet name="Satisfaction with Care" sheetId="2" r:id="Ra7c2029317d342a294ea48e22478e294"/>
-    <x:sheet name="Outpatient Score" sheetId="3" r:id="R5a6d0a953e18429e851b6e8ed097cdb2"/>
+    <x:sheet name="Wait Times" sheetId="1" r:id="Re851a78cc8b74fc4b39e210a9f30ee5e"/>
+    <x:sheet name="Satisfaction with Care" sheetId="2" r:id="R06d1af19e92e4422aaad5590922b8731"/>
+    <x:sheet name="Outpatient Score" sheetId="3" r:id="R063440efb81740c4bf7c8a84ad64a6a6"/>
   </x:sheets>
 </x:workbook>
 </file>
